--- a/data/db/sponsors.xlsx
+++ b/data/db/sponsors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nburmeister\Documents\_Development\AssetManagementPortal\app\data\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nburmeister\Documents\_Development\AssetManagementPortal\data\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97F6E30-2ADE-43AE-AAA0-B496A912B36D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE1BB79-D768-4D5C-B7E2-8AC5B45050C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6195" yWindow="-16320" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>One Real Estate Investments</t>
   </si>
@@ -96,6 +96,24 @@
   </si>
   <si>
     <t>pid</t>
+  </si>
+  <si>
+    <t>The Sterling Group</t>
+  </si>
+  <si>
+    <t>Blue Roc Premier</t>
+  </si>
+  <si>
+    <t>Artisan Capital Group</t>
+  </si>
+  <si>
+    <t>Landings Group</t>
+  </si>
+  <si>
+    <t>Soderberg</t>
+  </si>
+  <si>
+    <t>Berengaria</t>
   </si>
 </sst>
 </file>
@@ -413,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,6 +569,54 @@
         <v>18</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
